--- a/01-12-25 to 01-18-25 Milwaukee Schedule.xlsx
+++ b/01-12-25 to 01-18-25 Milwaukee Schedule.xlsx
@@ -2261,7 +2261,11 @@
           <t>Victor</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>

--- a/01-12-25 to 01-18-25 Milwaukee Schedule.xlsx
+++ b/01-12-25 to 01-18-25 Milwaukee Schedule.xlsx
@@ -540,24 +540,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>

--- a/01-12-25 to 01-18-25 Milwaukee Schedule.xlsx
+++ b/01-12-25 to 01-18-25 Milwaukee Schedule.xlsx
@@ -1614,7 +1614,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1765,16 +1765,8 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -1900,7 +1892,11 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
@@ -1965,7 +1961,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -2030,11 +2026,7 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
